--- a/combine/04_康力泉_且慢.xlsx
+++ b/combine/04_康力泉_且慢.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView windowWidth="21600" windowHeight="9840"/>
   </bookViews>
   <sheets>
     <sheet name="康力泉_交易记录" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -73,688 +73,688 @@
     <t>2019-03-22</t>
   </si>
   <si>
+    <t>21:50:20</t>
+  </si>
+  <si>
+    <t>000614</t>
+  </si>
+  <si>
+    <t>华安德国30(DAX)联接</t>
+  </si>
+  <si>
+    <t>买入</t>
+  </si>
+  <si>
+    <t>康力泉_且慢</t>
+  </si>
+  <si>
+    <t>海外成熟</t>
+  </si>
+  <si>
+    <t>德国</t>
+  </si>
+  <si>
+    <t>德国30</t>
+  </si>
+  <si>
+    <t>长赢指数投资计划-150份_盈米宝购买_orderid=2019032200763806</t>
+  </si>
+  <si>
     <t>2019-03-28</t>
   </si>
   <si>
+    <t>11:51:25</t>
+  </si>
+  <si>
+    <t>000216</t>
+  </si>
+  <si>
+    <t>华安黄金易ETF联接A</t>
+  </si>
+  <si>
+    <t>商品</t>
+  </si>
+  <si>
+    <t>黄金</t>
+  </si>
+  <si>
+    <t>长赢指数投资计划-150份_盈米宝购买_orderid=2019032800540691</t>
+  </si>
+  <si>
     <t>2019-04-26</t>
   </si>
   <si>
+    <t>13:55:09</t>
+  </si>
+  <si>
+    <t>004752</t>
+  </si>
+  <si>
+    <t>广发中证传媒ETF联接A</t>
+  </si>
+  <si>
+    <t>A 股</t>
+  </si>
+  <si>
+    <t>行业股</t>
+  </si>
+  <si>
+    <t>中证传媒</t>
+  </si>
+  <si>
+    <t>长赢指数投资计划-150份_盈米宝购买_orderid=2019042600801844</t>
+  </si>
+  <si>
     <t>2019-05-15</t>
   </si>
   <si>
+    <t>10:34:37</t>
+  </si>
+  <si>
+    <t>001051</t>
+  </si>
+  <si>
+    <t>华夏上证50ETF联接A</t>
+  </si>
+  <si>
+    <t>大盘股</t>
+  </si>
+  <si>
+    <t>上证50</t>
+  </si>
+  <si>
+    <t>长赢指数投资计划-150份_盈米宝购买_orderid=2019051500617807</t>
+  </si>
+  <si>
     <t>2019-06-18</t>
   </si>
   <si>
+    <t>10:17:43</t>
+  </si>
+  <si>
+    <t>000478</t>
+  </si>
+  <si>
+    <t>建信中证500指数增强A</t>
+  </si>
+  <si>
+    <t>中小盘股</t>
+  </si>
+  <si>
+    <t>中证500</t>
+  </si>
+  <si>
+    <t>长赢指数投资计划-S定投_盈米宝购买_orderid=2019061800357142</t>
+  </si>
+  <si>
+    <t>162411</t>
+  </si>
+  <si>
+    <t>华宝标普石油指数A</t>
+  </si>
+  <si>
+    <t>原油</t>
+  </si>
+  <si>
+    <t>长赢指数投资计划-S定投_盈米宝购买_orderid=2019061800357144</t>
+  </si>
+  <si>
     <t>2019-07-01</t>
   </si>
   <si>
+    <t>12:24:54</t>
+  </si>
+  <si>
+    <t>长赢指数投资计划-S定投_盈米宝购买_orderid=2019070100761118</t>
+  </si>
+  <si>
     <t>2019-07-31</t>
   </si>
   <si>
+    <t>10:51:49</t>
+  </si>
+  <si>
+    <t>长赢指数投资计划-S定投_盈米宝购买_orderid=2019073100594485</t>
+  </si>
+  <si>
     <t>2019-08-15</t>
   </si>
   <si>
+    <t>12:34:30</t>
+  </si>
+  <si>
+    <t>164906</t>
+  </si>
+  <si>
+    <t>交银中证海外中国互联网指数</t>
+  </si>
+  <si>
+    <t>海外新兴</t>
+  </si>
+  <si>
+    <t>海外互联</t>
+  </si>
+  <si>
+    <t>海外互联网</t>
+  </si>
+  <si>
+    <t>长赢指数投资计划-S定投_盈米宝购买_orderid=2019081500639439</t>
+  </si>
+  <si>
+    <t>100032</t>
+  </si>
+  <si>
+    <t>富国中证红利指数增强A</t>
+  </si>
+  <si>
+    <t>红利价值</t>
+  </si>
+  <si>
+    <t>中证红利</t>
+  </si>
+  <si>
+    <t>长赢指数投资计划-S定投_盈米宝购买_orderid=2019081500639437</t>
+  </si>
+  <si>
     <t>2019-08-23</t>
   </si>
   <si>
+    <t>12:09:39</t>
+  </si>
+  <si>
+    <t>长赢指数投资计划-150份_盈米宝购买_orderid=2019082300561640</t>
+  </si>
+  <si>
+    <t>001064</t>
+  </si>
+  <si>
+    <t>广发中证环保ETF联接A</t>
+  </si>
+  <si>
+    <t>中证环保</t>
+  </si>
+  <si>
+    <t>长赢指数投资计划-150份_盈米宝购买_orderid=2019082300561641</t>
+  </si>
+  <si>
+    <t>长赢指数投资计划-150份_盈米宝购买_orderid=2019082300561642</t>
+  </si>
+  <si>
+    <t>长赢指数投资计划-150份_盈米宝购买_orderid=2019082300561643</t>
+  </si>
+  <si>
+    <t>001052</t>
+  </si>
+  <si>
+    <t>华夏中证500ETF联接A</t>
+  </si>
+  <si>
+    <t>长赢指数投资计划-150份_盈米宝购买_orderid=2019082300561644</t>
+  </si>
+  <si>
     <t>2019-08-26</t>
   </si>
   <si>
+    <t>12:04:31</t>
+  </si>
+  <si>
+    <t>003765</t>
+  </si>
+  <si>
+    <t>广发创业板ETF联接A</t>
+  </si>
+  <si>
+    <t>创业板</t>
+  </si>
+  <si>
+    <t>长赢指数投资计划-150份_盈米宝购买_orderid=2019082600582191</t>
+  </si>
+  <si>
+    <t>长赢指数投资计划-150份_盈米宝购买_orderid=2019082600582193</t>
+  </si>
+  <si>
+    <t>000968</t>
+  </si>
+  <si>
+    <t>广发养老指数A</t>
+  </si>
+  <si>
+    <t>养老产业</t>
+  </si>
+  <si>
+    <t>长赢指数投资计划-150份_盈米宝购买_orderid=2019082600582192</t>
+  </si>
+  <si>
+    <t>长赢指数投资计划-150份_盈米宝购买_orderid=2019082600582190</t>
+  </si>
+  <si>
+    <t>长赢指数投资计划-150份_盈米宝购买_orderid=2019082600582186</t>
+  </si>
+  <si>
+    <t>长赢指数投资计划-150份_盈米宝购买_orderid=2019082600582187</t>
+  </si>
+  <si>
+    <t>110026</t>
+  </si>
+  <si>
+    <t>易方达创业板ETF联接A</t>
+  </si>
+  <si>
+    <t>长赢指数投资计划-150份_盈米宝购买_orderid=2019082600582185</t>
+  </si>
+  <si>
+    <t>长赢指数投资计划-150份_盈米宝购买_orderid=2019082600582184</t>
+  </si>
+  <si>
+    <t>502010</t>
+  </si>
+  <si>
+    <t>易方达证券公司分级</t>
+  </si>
+  <si>
+    <t>证券公司</t>
+  </si>
+  <si>
+    <t>长赢指数投资计划-150份_盈米宝购买_orderid=2019082600582188</t>
+  </si>
+  <si>
     <t>2019-08-27</t>
   </si>
   <si>
+    <t>12:05:19</t>
+  </si>
+  <si>
+    <t>长赢指数投资计划-150份_盈米宝购买_orderid=2019082700745196</t>
+  </si>
+  <si>
     <t>2019-08-28</t>
   </si>
   <si>
+    <t>12:16:25</t>
+  </si>
+  <si>
+    <t>长赢指数投资计划-150份_盈米宝购买_orderid=2019082800635468</t>
+  </si>
+  <si>
+    <t>长赢指数投资计划-150份_盈米宝购买_orderid=2019082800635469</t>
+  </si>
+  <si>
+    <t>12:16:46</t>
+  </si>
+  <si>
+    <t>长赢指数投资计划-150份_盈米宝购买_orderid=2019082800635524</t>
+  </si>
+  <si>
     <t>2019-08-29</t>
   </si>
   <si>
+    <t>12:09:32</t>
+  </si>
+  <si>
+    <t>长赢指数投资计划-150份_盈米宝购买_orderid=2019082900605886</t>
+  </si>
+  <si>
+    <t>000071</t>
+  </si>
+  <si>
+    <t>华夏恒生ETF联接A</t>
+  </si>
+  <si>
+    <t>香港</t>
+  </si>
+  <si>
+    <t>恒生</t>
+  </si>
+  <si>
+    <t>长赢指数投资计划-150份_盈米宝购买_orderid=2019082900605887</t>
+  </si>
+  <si>
     <t>2019-08-30</t>
   </si>
   <si>
+    <t>10:52:22</t>
+  </si>
+  <si>
+    <t>长赢指数投资计划-S定投_盈米宝购买_orderid=2019083000513055</t>
+  </si>
+  <si>
     <t>2019-11-01</t>
   </si>
   <si>
+    <t>11:16:08</t>
+  </si>
+  <si>
+    <t>长赢指数投资计划-S定投_盈米宝购买_orderid=2019110100771924</t>
+  </si>
+  <si>
+    <t>长赢指数投资计划-S定投_盈米宝购买_orderid=2019110100771920</t>
+  </si>
+  <si>
+    <t>长赢指数投资计划-S定投_盈米宝购买_orderid=2019110100771921</t>
+  </si>
+  <si>
     <t>2019-11-18</t>
   </si>
   <si>
+    <t>12:08:14</t>
+  </si>
+  <si>
+    <t>长赢指数投资计划-150份_盈米宝购买_orderid=2019111800920802</t>
+  </si>
+  <si>
+    <t>长赢指数投资计划-150份_盈米宝购买_orderid=2019111800920800</t>
+  </si>
+  <si>
     <t>2019-11-20</t>
   </si>
   <si>
+    <t>12:13:21</t>
+  </si>
+  <si>
+    <t>长赢指数投资计划-150份_盈米宝购买_orderid=2019112000823223</t>
+  </si>
+  <si>
     <t>2019-12-02</t>
   </si>
   <si>
+    <t>12:28:19</t>
+  </si>
+  <si>
+    <t>110027</t>
+  </si>
+  <si>
+    <t>易方达安心债券A</t>
+  </si>
+  <si>
+    <t>债券</t>
+  </si>
+  <si>
+    <t>国内债券</t>
+  </si>
+  <si>
+    <t>可转债</t>
+  </si>
+  <si>
+    <t>长赢指数投资计划-S定投_盈米宝购买_orderid=2019120201027907</t>
+  </si>
+  <si>
+    <t>12:29:22</t>
+  </si>
+  <si>
+    <t>长赢指数投资计划-150份_盈米宝购买_orderid=2019120201032688</t>
+  </si>
+  <si>
     <t>2019-12-03</t>
   </si>
   <si>
+    <t>12:07:46</t>
+  </si>
+  <si>
+    <t>001180</t>
+  </si>
+  <si>
+    <t>广发医药卫生联接A</t>
+  </si>
+  <si>
+    <t>全指医药</t>
+  </si>
+  <si>
+    <t>长赢指数投资计划-150份_盈米宝购买_orderid=2019120301683253</t>
+  </si>
+  <si>
     <t>2020-02-04</t>
   </si>
   <si>
+    <t>09:31:36</t>
+  </si>
+  <si>
+    <t>长赢指数投资计划-S定投_盈米宝购买_orderid=2020020400736492</t>
+  </si>
+  <si>
+    <t>长赢指数投资计划-S定投_盈米宝购买_orderid=2020020400736493</t>
+  </si>
+  <si>
+    <t>长赢指数投资计划-S定投_盈米宝购买_orderid=2020020400736494</t>
+  </si>
+  <si>
     <t>2020-02-26</t>
   </si>
   <si>
-    <t>2020-03-02</t>
+    <t>13:06:41</t>
+  </si>
+  <si>
+    <t>001469</t>
+  </si>
+  <si>
+    <t>广发中证全指金融地产联接A</t>
+  </si>
+  <si>
+    <t>金融地产</t>
+  </si>
+  <si>
+    <t>长赢指数投资计划-150份_盈米宝购买_orderid=2020022601679908</t>
+  </si>
+  <si>
+    <t>13:07:10</t>
+  </si>
+  <si>
+    <t>长赢指数投资计划-S定投_盈米宝购买_orderid=2020022601680553</t>
+  </si>
+  <si>
+    <t>2020-02-28</t>
+  </si>
+  <si>
+    <t>14:59:00</t>
+  </si>
+  <si>
+    <t>分红</t>
+  </si>
+  <si>
+    <t>康力泉_且慢_150份</t>
+  </si>
+  <si>
+    <t>长赢指数投资计划-150份_自补分红</t>
+  </si>
+  <si>
+    <t>康力泉_且慢_S定投</t>
+  </si>
+  <si>
+    <t>长赢指数投资计划-S定投_自补分红</t>
   </si>
   <si>
     <t>2020-03-09</t>
   </si>
   <si>
+    <t>11:59:28</t>
+  </si>
+  <si>
+    <t>卖出</t>
+  </si>
+  <si>
+    <t>长赢指数投资计划-S定投_赎回_orderid=2020030901192939</t>
+  </si>
+  <si>
+    <t>501018</t>
+  </si>
+  <si>
+    <t>南方原油A</t>
+  </si>
+  <si>
+    <t>长赢指数投资计划-S定投_盈米宝购买_orderid=2020030901192946</t>
+  </si>
+  <si>
+    <t>12:06:26</t>
+  </si>
+  <si>
+    <t>长赢指数投资计划-150份_赎回_orderid=2020030901244858</t>
+  </si>
+  <si>
+    <t>长赢指数投资计划-150份_盈米宝购买_orderid=2020030901244870</t>
+  </si>
+  <si>
     <t>2020-03-10</t>
   </si>
   <si>
+    <t>11:41:35</t>
+  </si>
+  <si>
+    <t>050025</t>
+  </si>
+  <si>
+    <t>博时标普500ETF联接A</t>
+  </si>
+  <si>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>标普500</t>
+  </si>
+  <si>
+    <t>长赢指数投资计划-S定投_盈米宝购买_orderid=2020031002247343</t>
+  </si>
+  <si>
+    <t>12:05:13</t>
+  </si>
+  <si>
+    <t>长赢指数投资计划-150份_盈米宝购买_orderid=2020031002299577</t>
+  </si>
+  <si>
     <t>2020-03-11</t>
   </si>
   <si>
+    <t>11:40:13</t>
+  </si>
+  <si>
+    <t>长赢指数投资计划-150份_盈米宝购买_orderid=2020031101451925</t>
+  </si>
+  <si>
+    <t>12:52:30</t>
+  </si>
+  <si>
+    <t>长赢指数投资计划-150份_盈米宝购买_orderid=2020031101658016</t>
+  </si>
+  <si>
+    <t>160416</t>
+  </si>
+  <si>
+    <t>华安标普石油指数</t>
+  </si>
+  <si>
+    <t>长赢指数投资计划-150份_盈米宝购买_orderid=2020031101658011</t>
+  </si>
+  <si>
     <t>2020-03-12</t>
   </si>
   <si>
+    <t>13:26:16</t>
+  </si>
+  <si>
+    <t>长赢指数投资计划-150份_赎回_orderid=2020031201626864</t>
+  </si>
+  <si>
     <t>2020-03-13</t>
   </si>
   <si>
+    <t>12:22:30</t>
+  </si>
+  <si>
+    <t>长赢指数投资计划-S定投_赎回到盈米宝_orderid=2020031301947080</t>
+  </si>
+  <si>
+    <t>长赢指数投资计划-S定投_盈米宝购买_orderid=2020031301947084</t>
+  </si>
+  <si>
+    <t>长赢指数投资计划-S定投_盈米宝购买_orderid=2020031301947087</t>
+  </si>
+  <si>
+    <t>12:23:02</t>
+  </si>
+  <si>
+    <t>长赢指数投资计划-150份_盈米宝购买_orderid=2020031301950110</t>
+  </si>
+  <si>
+    <t>长赢指数投资计划-150份_盈米宝购买_orderid=2020031301950113</t>
+  </si>
+  <si>
     <t>2020-03-18</t>
   </si>
   <si>
+    <t>12:37:15</t>
+  </si>
+  <si>
+    <t>长赢指数投资计划-150份_盈米宝购买_orderid=2020031801740069</t>
+  </si>
+  <si>
     <t>2020-03-19</t>
   </si>
   <si>
+    <t>14:04:15</t>
+  </si>
+  <si>
+    <t>长赢指数投资计划-150份_盈米宝购买_orderid=2020031901541502</t>
+  </si>
+  <si>
+    <t>长赢指数投资计划-150份_盈米宝购买_orderid=2020031901541507</t>
+  </si>
+  <si>
     <t>2020-04-24</t>
   </si>
   <si>
+    <t>长赢指数投资计划-150份_转托管</t>
+  </si>
+  <si>
+    <t>长赢指数投资计划-S定投_转托管</t>
+  </si>
+  <si>
     <t>2020-04-30</t>
   </si>
   <si>
+    <t>12:21:45</t>
+  </si>
+  <si>
+    <t>长赢指数投资计划-S定投_盈米宝购买_orderid=2020043000794255</t>
+  </si>
+  <si>
+    <t>12:21:59</t>
+  </si>
+  <si>
+    <t>长赢指数投资计划-150份_盈米宝购买_orderid=2020043000795907</t>
+  </si>
+  <si>
     <t>2020-05-18</t>
   </si>
   <si>
+    <t>13:56:31</t>
+  </si>
+  <si>
+    <t>长赢指数投资计划-150份_赎回到盈米宝_orderid=2020051801452720</t>
+  </si>
+  <si>
     <t>2020-06-24</t>
   </si>
   <si>
+    <t>13:35:38</t>
+  </si>
+  <si>
+    <t>270048</t>
+  </si>
+  <si>
+    <t>广发纯债债券A</t>
+  </si>
+  <si>
+    <t>纯债</t>
+  </si>
+  <si>
+    <t>长赢指数投资计划-150份_盈米宝购买_orderid=2020062401140661</t>
+  </si>
+  <si>
     <t>2020-07-14</t>
   </si>
   <si>
     <t>2020-07-16</t>
   </si>
   <si>
-    <t>21:50:20</t>
-  </si>
-  <si>
-    <t>11:51:25</t>
-  </si>
-  <si>
-    <t>13:55:09</t>
-  </si>
-  <si>
-    <t>10:34:37</t>
-  </si>
-  <si>
-    <t>10:17:43</t>
-  </si>
-  <si>
-    <t>12:24:54</t>
-  </si>
-  <si>
-    <t>10:51:49</t>
-  </si>
-  <si>
-    <t>12:34:30</t>
-  </si>
-  <si>
-    <t>12:09:39</t>
-  </si>
-  <si>
-    <t>12:04:31</t>
-  </si>
-  <si>
-    <t>12:05:19</t>
-  </si>
-  <si>
-    <t>12:16:25</t>
-  </si>
-  <si>
-    <t>12:16:46</t>
-  </si>
-  <si>
-    <t>12:09:32</t>
-  </si>
-  <si>
-    <t>10:52:22</t>
-  </si>
-  <si>
-    <t>11:16:08</t>
-  </si>
-  <si>
-    <t>12:08:14</t>
-  </si>
-  <si>
-    <t>12:13:21</t>
-  </si>
-  <si>
-    <t>12:28:19</t>
-  </si>
-  <si>
-    <t>12:29:22</t>
-  </si>
-  <si>
-    <t>12:07:46</t>
-  </si>
-  <si>
-    <t>09:31:36</t>
-  </si>
-  <si>
-    <t>13:06:41</t>
-  </si>
-  <si>
-    <t>13:07:10</t>
-  </si>
-  <si>
-    <t>14:59:00</t>
-  </si>
-  <si>
-    <t>11:59:28</t>
-  </si>
-  <si>
-    <t>12:06:26</t>
-  </si>
-  <si>
-    <t>11:41:35</t>
-  </si>
-  <si>
-    <t>12:05:13</t>
-  </si>
-  <si>
-    <t>11:40:13</t>
-  </si>
-  <si>
-    <t>12:52:30</t>
-  </si>
-  <si>
-    <t>13:26:16</t>
-  </si>
-  <si>
-    <t>12:22:30</t>
-  </si>
-  <si>
-    <t>12:23:02</t>
-  </si>
-  <si>
-    <t>12:37:15</t>
-  </si>
-  <si>
-    <t>14:04:15</t>
-  </si>
-  <si>
-    <t>12:21:45</t>
-  </si>
-  <si>
-    <t>12:21:59</t>
-  </si>
-  <si>
-    <t>13:56:31</t>
-  </si>
-  <si>
-    <t>13:35:38</t>
-  </si>
-  <si>
     <t>11:53:22</t>
-  </si>
-  <si>
-    <t>000614</t>
-  </si>
-  <si>
-    <t>000216</t>
-  </si>
-  <si>
-    <t>004752</t>
-  </si>
-  <si>
-    <t>001051</t>
-  </si>
-  <si>
-    <t>000478</t>
-  </si>
-  <si>
-    <t>162411</t>
-  </si>
-  <si>
-    <t>164906</t>
-  </si>
-  <si>
-    <t>100032</t>
-  </si>
-  <si>
-    <t>001064</t>
-  </si>
-  <si>
-    <t>001052</t>
-  </si>
-  <si>
-    <t>003765</t>
-  </si>
-  <si>
-    <t>000968</t>
-  </si>
-  <si>
-    <t>110026</t>
-  </si>
-  <si>
-    <t>502010</t>
-  </si>
-  <si>
-    <t>000071</t>
-  </si>
-  <si>
-    <t>110027</t>
-  </si>
-  <si>
-    <t>001180</t>
-  </si>
-  <si>
-    <t>001469</t>
-  </si>
-  <si>
-    <t>501018</t>
-  </si>
-  <si>
-    <t>050025</t>
-  </si>
-  <si>
-    <t>160416</t>
-  </si>
-  <si>
-    <t>270048</t>
-  </si>
-  <si>
-    <t>华安德国30(DAX)联接</t>
-  </si>
-  <si>
-    <t>华安黄金易ETF联接A</t>
-  </si>
-  <si>
-    <t>广发中证传媒ETF联接A</t>
-  </si>
-  <si>
-    <t>华夏上证50ETF联接A</t>
-  </si>
-  <si>
-    <t>建信中证500指数增强A</t>
-  </si>
-  <si>
-    <t>华宝标普石油指数A</t>
-  </si>
-  <si>
-    <t>交银中证海外中国互联网指数</t>
-  </si>
-  <si>
-    <t>富国中证红利指数增强A</t>
-  </si>
-  <si>
-    <t>广发中证环保ETF联接A</t>
-  </si>
-  <si>
-    <t>华夏中证500ETF联接A</t>
-  </si>
-  <si>
-    <t>广发创业板ETF联接A</t>
-  </si>
-  <si>
-    <t>广发养老指数A</t>
-  </si>
-  <si>
-    <t>易方达创业板ETF联接A</t>
-  </si>
-  <si>
-    <t>易方达证券公司分级</t>
-  </si>
-  <si>
-    <t>华夏恒生ETF联接A</t>
-  </si>
-  <si>
-    <t>易方达安心债券A</t>
-  </si>
-  <si>
-    <t>广发医药卫生联接A</t>
-  </si>
-  <si>
-    <t>广发中证全指金融地产联接A</t>
-  </si>
-  <si>
-    <t>南方原油A</t>
-  </si>
-  <si>
-    <t>博时标普500ETF联接A</t>
-  </si>
-  <si>
-    <t>华安标普石油指数</t>
-  </si>
-  <si>
-    <t>广发纯债债券A</t>
-  </si>
-  <si>
-    <t>买入</t>
-  </si>
-  <si>
-    <t>分红</t>
-  </si>
-  <si>
-    <t>卖出</t>
-  </si>
-  <si>
-    <t>康力泉_且慢</t>
-  </si>
-  <si>
-    <t>康力泉_且慢_150份</t>
-  </si>
-  <si>
-    <t>康力泉_且慢_S定投</t>
-  </si>
-  <si>
-    <t>海外成熟</t>
-  </si>
-  <si>
-    <t>商品</t>
-  </si>
-  <si>
-    <t>A 股</t>
-  </si>
-  <si>
-    <t>海外新兴</t>
-  </si>
-  <si>
-    <t>债券</t>
-  </si>
-  <si>
-    <t>德国</t>
-  </si>
-  <si>
-    <t>行业股</t>
-  </si>
-  <si>
-    <t>大盘股</t>
-  </si>
-  <si>
-    <t>中小盘股</t>
-  </si>
-  <si>
-    <t>海外互联</t>
-  </si>
-  <si>
-    <t>红利价值</t>
-  </si>
-  <si>
-    <t>香港</t>
-  </si>
-  <si>
-    <t>国内债券</t>
-  </si>
-  <si>
-    <t>美国</t>
-  </si>
-  <si>
-    <t>德国30</t>
-  </si>
-  <si>
-    <t>黄金</t>
-  </si>
-  <si>
-    <t>中证传媒</t>
-  </si>
-  <si>
-    <t>上证50</t>
-  </si>
-  <si>
-    <t>中证500</t>
-  </si>
-  <si>
-    <t>原油</t>
-  </si>
-  <si>
-    <t>海外互联网</t>
-  </si>
-  <si>
-    <t>中证红利</t>
-  </si>
-  <si>
-    <t>中证环保</t>
-  </si>
-  <si>
-    <t>创业板</t>
-  </si>
-  <si>
-    <t>养老产业</t>
-  </si>
-  <si>
-    <t>证券公司</t>
-  </si>
-  <si>
-    <t>恒生</t>
-  </si>
-  <si>
-    <t>可转债</t>
-  </si>
-  <si>
-    <t>全指医药</t>
-  </si>
-  <si>
-    <t>金融地产</t>
-  </si>
-  <si>
-    <t>标普500</t>
-  </si>
-  <si>
-    <t>纯债</t>
-  </si>
-  <si>
-    <t>长赢指数投资计划-150份_盈米宝购买_orderid=2019032200763806</t>
-  </si>
-  <si>
-    <t>长赢指数投资计划-150份_盈米宝购买_orderid=2019032800540691</t>
-  </si>
-  <si>
-    <t>长赢指数投资计划-150份_盈米宝购买_orderid=2019042600801844</t>
-  </si>
-  <si>
-    <t>长赢指数投资计划-150份_盈米宝购买_orderid=2019051500617807</t>
-  </si>
-  <si>
-    <t>长赢指数投资计划-S定投_盈米宝购买_orderid=2019061800357142</t>
-  </si>
-  <si>
-    <t>长赢指数投资计划-S定投_盈米宝购买_orderid=2019061800357144</t>
-  </si>
-  <si>
-    <t>长赢指数投资计划-S定投_盈米宝购买_orderid=2019070100761118</t>
-  </si>
-  <si>
-    <t>长赢指数投资计划-S定投_盈米宝购买_orderid=2019073100594485</t>
-  </si>
-  <si>
-    <t>长赢指数投资计划-S定投_盈米宝购买_orderid=2019081500639439</t>
-  </si>
-  <si>
-    <t>长赢指数投资计划-S定投_盈米宝购买_orderid=2019081500639437</t>
-  </si>
-  <si>
-    <t>长赢指数投资计划-150份_盈米宝购买_orderid=2019082300561640</t>
-  </si>
-  <si>
-    <t>长赢指数投资计划-150份_盈米宝购买_orderid=2019082300561641</t>
-  </si>
-  <si>
-    <t>长赢指数投资计划-150份_盈米宝购买_orderid=2019082300561642</t>
-  </si>
-  <si>
-    <t>长赢指数投资计划-150份_盈米宝购买_orderid=2019082300561643</t>
-  </si>
-  <si>
-    <t>长赢指数投资计划-150份_盈米宝购买_orderid=2019082300561644</t>
-  </si>
-  <si>
-    <t>长赢指数投资计划-150份_盈米宝购买_orderid=2019082600582191</t>
-  </si>
-  <si>
-    <t>长赢指数投资计划-150份_盈米宝购买_orderid=2019082600582193</t>
-  </si>
-  <si>
-    <t>长赢指数投资计划-150份_盈米宝购买_orderid=2019082600582192</t>
-  </si>
-  <si>
-    <t>长赢指数投资计划-150份_盈米宝购买_orderid=2019082600582190</t>
-  </si>
-  <si>
-    <t>长赢指数投资计划-150份_盈米宝购买_orderid=2019082600582186</t>
-  </si>
-  <si>
-    <t>长赢指数投资计划-150份_盈米宝购买_orderid=2019082600582187</t>
-  </si>
-  <si>
-    <t>长赢指数投资计划-150份_盈米宝购买_orderid=2019082600582185</t>
-  </si>
-  <si>
-    <t>长赢指数投资计划-150份_盈米宝购买_orderid=2019082600582184</t>
-  </si>
-  <si>
-    <t>长赢指数投资计划-150份_盈米宝购买_orderid=2019082600582188</t>
-  </si>
-  <si>
-    <t>长赢指数投资计划-150份_盈米宝购买_orderid=2019082700745196</t>
-  </si>
-  <si>
-    <t>长赢指数投资计划-150份_盈米宝购买_orderid=2019082800635468</t>
-  </si>
-  <si>
-    <t>长赢指数投资计划-150份_盈米宝购买_orderid=2019082800635469</t>
-  </si>
-  <si>
-    <t>长赢指数投资计划-150份_盈米宝购买_orderid=2019082800635524</t>
-  </si>
-  <si>
-    <t>长赢指数投资计划-150份_盈米宝购买_orderid=2019082900605886</t>
-  </si>
-  <si>
-    <t>长赢指数投资计划-150份_盈米宝购买_orderid=2019082900605887</t>
-  </si>
-  <si>
-    <t>长赢指数投资计划-S定投_盈米宝购买_orderid=2019083000513055</t>
-  </si>
-  <si>
-    <t>长赢指数投资计划-S定投_盈米宝购买_orderid=2019110100771924</t>
-  </si>
-  <si>
-    <t>长赢指数投资计划-S定投_盈米宝购买_orderid=2019110100771920</t>
-  </si>
-  <si>
-    <t>长赢指数投资计划-S定投_盈米宝购买_orderid=2019110100771921</t>
-  </si>
-  <si>
-    <t>长赢指数投资计划-150份_盈米宝购买_orderid=2019111800920802</t>
-  </si>
-  <si>
-    <t>长赢指数投资计划-150份_盈米宝购买_orderid=2019111800920800</t>
-  </si>
-  <si>
-    <t>长赢指数投资计划-150份_盈米宝购买_orderid=2019112000823223</t>
-  </si>
-  <si>
-    <t>长赢指数投资计划-S定投_盈米宝购买_orderid=2019120201027907</t>
-  </si>
-  <si>
-    <t>长赢指数投资计划-150份_盈米宝购买_orderid=2019120201032688</t>
-  </si>
-  <si>
-    <t>长赢指数投资计划-150份_盈米宝购买_orderid=2019120301683253</t>
-  </si>
-  <si>
-    <t>长赢指数投资计划-S定投_盈米宝购买_orderid=2020020400736492</t>
-  </si>
-  <si>
-    <t>长赢指数投资计划-S定投_盈米宝购买_orderid=2020020400736493</t>
-  </si>
-  <si>
-    <t>长赢指数投资计划-S定投_盈米宝购买_orderid=2020020400736494</t>
-  </si>
-  <si>
-    <t>长赢指数投资计划-150份_盈米宝购买_orderid=2020022601679908</t>
-  </si>
-  <si>
-    <t>长赢指数投资计划-S定投_盈米宝购买_orderid=2020022601680553</t>
-  </si>
-  <si>
-    <t>长赢指数投资计划-150份_自补分红</t>
-  </si>
-  <si>
-    <t>长赢指数投资计划-S定投_自补分红</t>
-  </si>
-  <si>
-    <t>长赢指数投资计划-S定投_赎回_orderid=2020030901192939</t>
-  </si>
-  <si>
-    <t>长赢指数投资计划-S定投_盈米宝购买_orderid=2020030901192946</t>
-  </si>
-  <si>
-    <t>长赢指数投资计划-150份_赎回_orderid=2020030901244858</t>
-  </si>
-  <si>
-    <t>长赢指数投资计划-150份_盈米宝购买_orderid=2020030901244870</t>
-  </si>
-  <si>
-    <t>长赢指数投资计划-S定投_盈米宝购买_orderid=2020031002247343</t>
-  </si>
-  <si>
-    <t>长赢指数投资计划-150份_盈米宝购买_orderid=2020031002299577</t>
-  </si>
-  <si>
-    <t>长赢指数投资计划-150份_盈米宝购买_orderid=2020031101451925</t>
-  </si>
-  <si>
-    <t>长赢指数投资计划-150份_盈米宝购买_orderid=2020031101658016</t>
-  </si>
-  <si>
-    <t>长赢指数投资计划-150份_盈米宝购买_orderid=2020031101658011</t>
-  </si>
-  <si>
-    <t>长赢指数投资计划-150份_赎回_orderid=2020031201626864</t>
-  </si>
-  <si>
-    <t>长赢指数投资计划-S定投_赎回到盈米宝_orderid=2020031301947080</t>
-  </si>
-  <si>
-    <t>长赢指数投资计划-S定投_盈米宝购买_orderid=2020031301947084</t>
-  </si>
-  <si>
-    <t>长赢指数投资计划-S定投_盈米宝购买_orderid=2020031301947087</t>
-  </si>
-  <si>
-    <t>长赢指数投资计划-150份_盈米宝购买_orderid=2020031301950110</t>
-  </si>
-  <si>
-    <t>长赢指数投资计划-150份_盈米宝购买_orderid=2020031301950113</t>
-  </si>
-  <si>
-    <t>长赢指数投资计划-150份_盈米宝购买_orderid=2020031801740069</t>
-  </si>
-  <si>
-    <t>长赢指数投资计划-150份_盈米宝购买_orderid=2020031901541502</t>
-  </si>
-  <si>
-    <t>长赢指数投资计划-150份_盈米宝购买_orderid=2020031901541507</t>
-  </si>
-  <si>
-    <t>长赢指数投资计划-150份_转托管</t>
-  </si>
-  <si>
-    <t>长赢指数投资计划-S定投_转托管</t>
-  </si>
-  <si>
-    <t>长赢指数投资计划-S定投_盈米宝购买_orderid=2020043000794255</t>
-  </si>
-  <si>
-    <t>长赢指数投资计划-150份_盈米宝购买_orderid=2020043000795907</t>
-  </si>
-  <si>
-    <t>长赢指数投资计划-150份_赎回到盈米宝_orderid=2020051801452720</t>
-  </si>
-  <si>
-    <t>长赢指数投资计划-150份_盈米宝购买_orderid=2020062401140661</t>
   </si>
   <si>
     <t>长赢指数投资计划-S定投_赎回到盈米宝_orderid=2020071601819724</t>
@@ -764,32 +764,375 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -812,21 +1155,316 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1109,19 +1747,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:S74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="2:19">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1188,16 +1831,16 @@
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>116</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="H2">
         <v>1.047</v>
@@ -1218,22 +1861,22 @@
         <v>1000</v>
       </c>
       <c r="N2" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="O2" t="s">
-        <v>144</v>
+        <v>24</v>
       </c>
       <c r="P2" t="s">
-        <v>149</v>
+        <v>25</v>
       </c>
       <c r="Q2" t="s">
-        <v>158</v>
+        <v>26</v>
       </c>
       <c r="R2">
         <v>321</v>
       </c>
       <c r="S2" t="s">
-        <v>176</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1244,19 +1887,19 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>117</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="H3">
         <v>1.0523</v>
@@ -1277,22 +1920,22 @@
         <v>1000</v>
       </c>
       <c r="N3" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="O3" t="s">
-        <v>145</v>
+        <v>32</v>
       </c>
       <c r="P3" t="s">
-        <v>145</v>
+        <v>32</v>
       </c>
       <c r="Q3" t="s">
-        <v>159</v>
+        <v>33</v>
       </c>
       <c r="R3">
         <v>611</v>
       </c>
       <c r="S3" t="s">
-        <v>177</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1303,25 +1946,25 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>118</v>
+        <v>38</v>
       </c>
       <c r="G4" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="H4">
-        <v>0.8139999999999999</v>
+        <v>0.814</v>
       </c>
       <c r="I4">
-        <v>0.8139999999999999</v>
+        <v>0.814</v>
       </c>
       <c r="J4">
         <v>1227.03</v>
@@ -1336,22 +1979,22 @@
         <v>1000</v>
       </c>
       <c r="N4" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="O4" t="s">
-        <v>146</v>
+        <v>39</v>
       </c>
       <c r="P4" t="s">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="Q4" t="s">
-        <v>160</v>
+        <v>41</v>
       </c>
       <c r="R4">
         <v>144</v>
       </c>
       <c r="S4" t="s">
-        <v>178</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1362,25 +2005,25 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>119</v>
+        <v>46</v>
       </c>
       <c r="G5" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="H5">
-        <v>0.9429999999999999</v>
+        <v>0.943</v>
       </c>
       <c r="I5">
-        <v>0.9429999999999999</v>
+        <v>0.943</v>
       </c>
       <c r="J5">
         <v>1059.17</v>
@@ -1395,22 +2038,22 @@
         <v>1000</v>
       </c>
       <c r="N5" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="O5" t="s">
-        <v>146</v>
+        <v>39</v>
       </c>
       <c r="P5" t="s">
-        <v>151</v>
+        <v>47</v>
       </c>
       <c r="Q5" t="s">
-        <v>161</v>
+        <v>48</v>
       </c>
       <c r="R5">
         <v>111</v>
       </c>
       <c r="S5" t="s">
-        <v>179</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1421,19 +2064,19 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="F6" t="s">
-        <v>120</v>
+        <v>53</v>
       </c>
       <c r="G6" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="H6">
         <v>1.8761</v>
@@ -1454,22 +2097,22 @@
         <v>1000</v>
       </c>
       <c r="N6" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="O6" t="s">
-        <v>146</v>
+        <v>39</v>
       </c>
       <c r="P6" t="s">
-        <v>152</v>
+        <v>54</v>
       </c>
       <c r="Q6" t="s">
-        <v>162</v>
+        <v>55</v>
       </c>
       <c r="R6">
         <v>121</v>
       </c>
       <c r="S6" t="s">
-        <v>180</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -1480,19 +2123,19 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" t="s">
         <v>57</v>
       </c>
-      <c r="E7" t="s">
-        <v>99</v>
-      </c>
       <c r="F7" t="s">
-        <v>121</v>
+        <v>58</v>
       </c>
       <c r="G7" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="H7">
         <v>0.453</v>
@@ -1513,22 +2156,22 @@
         <v>1000</v>
       </c>
       <c r="N7" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="O7" t="s">
-        <v>145</v>
+        <v>32</v>
       </c>
       <c r="P7" t="s">
-        <v>145</v>
+        <v>32</v>
       </c>
       <c r="Q7" t="s">
-        <v>163</v>
+        <v>59</v>
       </c>
       <c r="R7">
         <v>613</v>
       </c>
       <c r="S7" t="s">
-        <v>181</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1539,19 +2182,19 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>117</v>
+        <v>31</v>
       </c>
       <c r="G8" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="H8">
         <v>1.1296</v>
@@ -1572,22 +2215,22 @@
         <v>1000</v>
       </c>
       <c r="N8" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="O8" t="s">
-        <v>145</v>
+        <v>32</v>
       </c>
       <c r="P8" t="s">
-        <v>145</v>
+        <v>32</v>
       </c>
       <c r="Q8" t="s">
-        <v>159</v>
+        <v>33</v>
       </c>
       <c r="R8">
         <v>611</v>
       </c>
       <c r="S8" t="s">
-        <v>182</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -1598,19 +2241,19 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E9" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="F9" t="s">
-        <v>120</v>
+        <v>53</v>
       </c>
       <c r="G9" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="H9">
         <v>1.9407</v>
@@ -1631,22 +2274,22 @@
         <v>1000</v>
       </c>
       <c r="N9" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="O9" t="s">
-        <v>146</v>
+        <v>39</v>
       </c>
       <c r="P9" t="s">
-        <v>152</v>
+        <v>54</v>
       </c>
       <c r="Q9" t="s">
-        <v>162</v>
+        <v>55</v>
       </c>
       <c r="R9">
         <v>121</v>
       </c>
       <c r="S9" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -1657,19 +2300,19 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="D10" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="F10" t="s">
-        <v>122</v>
+        <v>70</v>
       </c>
       <c r="G10" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="H10">
         <v>1.11</v>
@@ -1678,7 +2321,7 @@
         <v>1.11</v>
       </c>
       <c r="J10">
-        <v>899.8200000000001</v>
+        <v>899.82</v>
       </c>
       <c r="K10">
         <v>998.8</v>
@@ -1690,22 +2333,22 @@
         <v>1000</v>
       </c>
       <c r="N10" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="O10" t="s">
-        <v>147</v>
+        <v>71</v>
       </c>
       <c r="P10" t="s">
-        <v>153</v>
+        <v>72</v>
       </c>
       <c r="Q10" t="s">
-        <v>164</v>
+        <v>73</v>
       </c>
       <c r="R10">
         <v>221</v>
       </c>
       <c r="S10" t="s">
-        <v>184</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1716,19 +2359,19 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="F11" t="s">
-        <v>123</v>
+        <v>76</v>
       </c>
       <c r="G11" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="H11">
         <v>1.076</v>
@@ -1749,22 +2392,22 @@
         <v>1000</v>
       </c>
       <c r="N11" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="O11" t="s">
-        <v>146</v>
+        <v>39</v>
       </c>
       <c r="P11" t="s">
-        <v>154</v>
+        <v>77</v>
       </c>
       <c r="Q11" t="s">
-        <v>165</v>
+        <v>78</v>
       </c>
       <c r="R11">
         <v>131</v>
       </c>
       <c r="S11" t="s">
-        <v>185</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1775,19 +2418,19 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="E12" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="F12" t="s">
-        <v>121</v>
+        <v>58</v>
       </c>
       <c r="G12" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="H12">
         <v>0.376</v>
@@ -1808,22 +2451,22 @@
         <v>993.83</v>
       </c>
       <c r="N12" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="O12" t="s">
-        <v>145</v>
+        <v>32</v>
       </c>
       <c r="P12" t="s">
-        <v>145</v>
+        <v>32</v>
       </c>
       <c r="Q12" t="s">
-        <v>163</v>
+        <v>59</v>
       </c>
       <c r="R12">
         <v>613</v>
       </c>
       <c r="S12" t="s">
-        <v>186</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1834,19 +2477,19 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="E13" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="F13" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="G13" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="H13">
         <v>0.5482</v>
@@ -1867,22 +2510,22 @@
         <v>5336</v>
       </c>
       <c r="N13" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="O13" t="s">
-        <v>146</v>
+        <v>39</v>
       </c>
       <c r="P13" t="s">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="Q13" t="s">
-        <v>166</v>
+        <v>85</v>
       </c>
       <c r="R13">
         <v>143</v>
       </c>
       <c r="S13" t="s">
-        <v>187</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1893,19 +2536,19 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="D14" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="E14" t="s">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="F14" t="s">
-        <v>118</v>
+        <v>38</v>
       </c>
       <c r="G14" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="H14">
         <v>0.732</v>
@@ -1926,22 +2569,22 @@
         <v>3335</v>
       </c>
       <c r="N14" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="O14" t="s">
-        <v>146</v>
+        <v>39</v>
       </c>
       <c r="P14" t="s">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="Q14" t="s">
-        <v>160</v>
+        <v>41</v>
       </c>
       <c r="R14">
         <v>144</v>
       </c>
       <c r="S14" t="s">
-        <v>188</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1952,19 +2595,19 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="D15" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="E15" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="F15" t="s">
-        <v>120</v>
+        <v>53</v>
       </c>
       <c r="G15" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="H15">
         <v>1.921</v>
@@ -1985,22 +2628,22 @@
         <v>7337</v>
       </c>
       <c r="N15" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="O15" t="s">
-        <v>146</v>
+        <v>39</v>
       </c>
       <c r="P15" t="s">
-        <v>152</v>
+        <v>54</v>
       </c>
       <c r="Q15" t="s">
-        <v>162</v>
+        <v>55</v>
       </c>
       <c r="R15">
         <v>121</v>
       </c>
       <c r="S15" t="s">
-        <v>189</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -2011,19 +2654,19 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="D16" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="E16" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="F16" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="G16" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="H16">
         <v>0.543</v>
@@ -2044,22 +2687,22 @@
         <v>2668</v>
       </c>
       <c r="N16" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="O16" t="s">
-        <v>146</v>
+        <v>39</v>
       </c>
       <c r="P16" t="s">
-        <v>152</v>
+        <v>54</v>
       </c>
       <c r="Q16" t="s">
-        <v>162</v>
+        <v>55</v>
       </c>
       <c r="R16">
         <v>121</v>
       </c>
       <c r="S16" t="s">
-        <v>190</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -2070,19 +2713,19 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="D17" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="E17" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="F17" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="G17" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="H17">
         <v>0.9048</v>
@@ -2103,22 +2746,22 @@
         <v>667</v>
       </c>
       <c r="N17" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="O17" t="s">
-        <v>146</v>
+        <v>39</v>
       </c>
       <c r="P17" t="s">
-        <v>152</v>
+        <v>54</v>
       </c>
       <c r="Q17" t="s">
-        <v>167</v>
+        <v>96</v>
       </c>
       <c r="R17">
         <v>124</v>
       </c>
       <c r="S17" t="s">
-        <v>191</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -2129,19 +2772,19 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="D18" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="E18" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="F18" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="G18" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="H18">
         <v>0.539</v>
@@ -2162,22 +2805,22 @@
         <v>1334</v>
       </c>
       <c r="N18" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="O18" t="s">
-        <v>146</v>
+        <v>39</v>
       </c>
       <c r="P18" t="s">
-        <v>152</v>
+        <v>54</v>
       </c>
       <c r="Q18" t="s">
-        <v>162</v>
+        <v>55</v>
       </c>
       <c r="R18">
         <v>121</v>
       </c>
       <c r="S18" t="s">
-        <v>192</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -2188,19 +2831,19 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="D19" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="E19" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F19" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="G19" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="H19">
         <v>0.9424</v>
@@ -2221,22 +2864,22 @@
         <v>4002</v>
       </c>
       <c r="N19" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="O19" t="s">
-        <v>146</v>
+        <v>39</v>
       </c>
       <c r="P19" t="s">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="Q19" t="s">
-        <v>168</v>
+        <v>101</v>
       </c>
       <c r="R19">
         <v>141</v>
       </c>
       <c r="S19" t="s">
-        <v>193</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -2247,19 +2890,19 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="D20" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="E20" t="s">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="F20" t="s">
-        <v>116</v>
+        <v>21</v>
       </c>
       <c r="G20" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="H20">
         <v>1.089</v>
@@ -2280,22 +2923,22 @@
         <v>667</v>
       </c>
       <c r="N20" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="O20" t="s">
-        <v>144</v>
+        <v>24</v>
       </c>
       <c r="P20" t="s">
-        <v>149</v>
+        <v>25</v>
       </c>
       <c r="Q20" t="s">
-        <v>158</v>
+        <v>26</v>
       </c>
       <c r="R20">
         <v>321</v>
       </c>
       <c r="S20" t="s">
-        <v>194</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -2306,19 +2949,19 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="D21" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="E21" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="F21" t="s">
-        <v>121</v>
+        <v>58</v>
       </c>
       <c r="G21" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="H21">
         <v>0.378</v>
@@ -2339,22 +2982,22 @@
         <v>993.83</v>
       </c>
       <c r="N21" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="O21" t="s">
-        <v>145</v>
+        <v>32</v>
       </c>
       <c r="P21" t="s">
-        <v>145</v>
+        <v>32</v>
       </c>
       <c r="Q21" t="s">
-        <v>163</v>
+        <v>59</v>
       </c>
       <c r="R21">
         <v>613</v>
       </c>
       <c r="S21" t="s">
-        <v>195</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:19">
@@ -2365,19 +3008,19 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="D22" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="E22" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="F22" t="s">
-        <v>122</v>
+        <v>70</v>
       </c>
       <c r="G22" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="H22">
         <v>1.155</v>
@@ -2398,22 +3041,22 @@
         <v>667</v>
       </c>
       <c r="N22" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="O22" t="s">
-        <v>147</v>
+        <v>71</v>
       </c>
       <c r="P22" t="s">
-        <v>153</v>
+        <v>72</v>
       </c>
       <c r="Q22" t="s">
-        <v>164</v>
+        <v>73</v>
       </c>
       <c r="R22">
         <v>221</v>
       </c>
       <c r="S22" t="s">
-        <v>196</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:19">
@@ -2424,19 +3067,19 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="D23" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="E23" t="s">
         <v>106</v>
       </c>
       <c r="F23" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="G23" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="H23">
         <v>1.6629</v>
@@ -2457,22 +3100,22 @@
         <v>667</v>
       </c>
       <c r="N23" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="O23" t="s">
-        <v>146</v>
+        <v>39</v>
       </c>
       <c r="P23" t="s">
-        <v>152</v>
+        <v>54</v>
       </c>
       <c r="Q23" t="s">
-        <v>167</v>
+        <v>96</v>
       </c>
       <c r="R23">
         <v>124</v>
       </c>
       <c r="S23" t="s">
-        <v>197</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:19">
@@ -2483,19 +3126,19 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="D24" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="E24" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="F24" t="s">
-        <v>123</v>
+        <v>76</v>
       </c>
       <c r="G24" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="H24">
         <v>1.087</v>
@@ -2516,22 +3159,22 @@
         <v>2668</v>
       </c>
       <c r="N24" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="O24" t="s">
-        <v>146</v>
+        <v>39</v>
       </c>
       <c r="P24" t="s">
-        <v>154</v>
+        <v>77</v>
       </c>
       <c r="Q24" t="s">
-        <v>165</v>
+        <v>78</v>
       </c>
       <c r="R24">
         <v>131</v>
       </c>
       <c r="S24" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:19">
@@ -2542,19 +3185,19 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="D25" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="E25" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F25" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="G25" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="H25">
         <v>0.9917</v>
@@ -2563,10 +3206,10 @@
         <v>0.9917</v>
       </c>
       <c r="J25">
-        <v>94.06999999999999</v>
+        <v>94.07</v>
       </c>
       <c r="K25">
-        <v>93.29000000000001</v>
+        <v>93.29</v>
       </c>
       <c r="L25">
         <v>0.09</v>
@@ -2575,22 +3218,22 @@
         <v>93.38</v>
       </c>
       <c r="N25" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="O25" t="s">
-        <v>146</v>
+        <v>39</v>
       </c>
       <c r="P25" t="s">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="Q25" t="s">
-        <v>169</v>
+        <v>112</v>
       </c>
       <c r="R25">
         <v>145</v>
       </c>
       <c r="S25" t="s">
-        <v>199</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:19">
@@ -2601,19 +3244,19 @@
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="D26" t="s">
-        <v>63</v>
+        <v>115</v>
       </c>
       <c r="E26" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="F26" t="s">
-        <v>121</v>
+        <v>58</v>
       </c>
       <c r="G26" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="H26">
         <v>0.375</v>
@@ -2634,22 +3277,22 @@
         <v>13.34</v>
       </c>
       <c r="N26" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="O26" t="s">
-        <v>145</v>
+        <v>32</v>
       </c>
       <c r="P26" t="s">
-        <v>145</v>
+        <v>32</v>
       </c>
       <c r="Q26" t="s">
-        <v>163</v>
+        <v>59</v>
       </c>
       <c r="R26">
         <v>613</v>
       </c>
       <c r="S26" t="s">
-        <v>200</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:19">
@@ -2660,19 +3303,19 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>117</v>
       </c>
       <c r="D27" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="E27" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="F27" t="s">
-        <v>123</v>
+        <v>76</v>
       </c>
       <c r="G27" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="H27">
         <v>1.101</v>
@@ -2693,22 +3336,22 @@
         <v>667</v>
       </c>
       <c r="N27" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="O27" t="s">
-        <v>146</v>
+        <v>39</v>
       </c>
       <c r="P27" t="s">
-        <v>154</v>
+        <v>77</v>
       </c>
       <c r="Q27" t="s">
-        <v>165</v>
+        <v>78</v>
       </c>
       <c r="R27">
         <v>131</v>
       </c>
       <c r="S27" t="s">
-        <v>201</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:19">
@@ -2719,19 +3362,19 @@
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>117</v>
       </c>
       <c r="D28" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="E28" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F28" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="G28" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="H28">
         <v>0.9484</v>
@@ -2752,22 +3395,22 @@
         <v>667</v>
       </c>
       <c r="N28" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="O28" t="s">
-        <v>146</v>
+        <v>39</v>
       </c>
       <c r="P28" t="s">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="Q28" t="s">
-        <v>168</v>
+        <v>101</v>
       </c>
       <c r="R28">
         <v>141</v>
       </c>
       <c r="S28" t="s">
-        <v>202</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:19">
@@ -2778,19 +3421,19 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>117</v>
       </c>
       <c r="D29" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="E29" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F29" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="G29" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="H29">
         <v>0.9977</v>
@@ -2799,10 +3442,10 @@
         <v>0.9977</v>
       </c>
       <c r="J29">
-        <v>93.51000000000001</v>
+        <v>93.51</v>
       </c>
       <c r="K29">
-        <v>93.29000000000001</v>
+        <v>93.29</v>
       </c>
       <c r="L29">
         <v>0.09</v>
@@ -2811,22 +3454,22 @@
         <v>93.38</v>
       </c>
       <c r="N29" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="O29" t="s">
-        <v>146</v>
+        <v>39</v>
       </c>
       <c r="P29" t="s">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="Q29" t="s">
-        <v>169</v>
+        <v>112</v>
       </c>
       <c r="R29">
         <v>145</v>
       </c>
       <c r="S29" t="s">
-        <v>203</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:19">
@@ -2837,19 +3480,19 @@
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>30</v>
+        <v>123</v>
       </c>
       <c r="D30" t="s">
-        <v>66</v>
+        <v>124</v>
       </c>
       <c r="E30" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F30" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="G30" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="H30">
         <v>0.9925</v>
@@ -2858,10 +3501,10 @@
         <v>0.9925</v>
       </c>
       <c r="J30">
-        <v>93.98999999999999</v>
+        <v>93.99</v>
       </c>
       <c r="K30">
-        <v>93.29000000000001</v>
+        <v>93.29</v>
       </c>
       <c r="L30">
         <v>0.09</v>
@@ -2870,22 +3513,22 @@
         <v>93.38</v>
       </c>
       <c r="N30" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="O30" t="s">
-        <v>146</v>
+        <v>39</v>
       </c>
       <c r="P30" t="s">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="Q30" t="s">
-        <v>169</v>
+        <v>112</v>
       </c>
       <c r="R30">
         <v>145</v>
       </c>
       <c r="S30" t="s">
-        <v>204</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:19">
@@ -2896,19 +3539,19 @@
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>30</v>
+        <v>123</v>
       </c>
       <c r="D31" t="s">
-        <v>66</v>
+        <v>124</v>
       </c>
       <c r="E31" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="F31" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G31" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="H31">
         <v>1.4493</v>
@@ -2929,22 +3572,22 @@
         <v>667</v>
       </c>
       <c r="N31" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="O31" t="s">
-        <v>147</v>
+        <v>71</v>
       </c>
       <c r="P31" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="Q31" t="s">
-        <v>170</v>
+        <v>129</v>
       </c>
       <c r="R31">
         <v>211</v>
       </c>
       <c r="S31" t="s">
-        <v>205</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:19">
@@ -2955,19 +3598,19 @@
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="D32" t="s">
-        <v>67</v>
+        <v>132</v>
       </c>
       <c r="E32" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="F32" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G32" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="H32">
         <v>1.4496</v>
@@ -2988,22 +3631,22 @@
         <v>1000</v>
       </c>
       <c r="N32" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="O32" t="s">
-        <v>147</v>
+        <v>71</v>
       </c>
       <c r="P32" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="Q32" t="s">
-        <v>170</v>
+        <v>129</v>
       </c>
       <c r="R32">
         <v>211</v>
       </c>
       <c r="S32" t="s">
-        <v>206</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:19">
@@ -3014,19 +3657,19 @@
         <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>32</v>
+        <v>134</v>
       </c>
       <c r="D33" t="s">
-        <v>68</v>
+        <v>135</v>
       </c>
       <c r="E33" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="F33" t="s">
-        <v>121</v>
+        <v>58</v>
       </c>
       <c r="G33" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="H33">
         <v>0.391</v>
@@ -3047,22 +3690,22 @@
         <v>1000</v>
       </c>
       <c r="N33" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="O33" t="s">
-        <v>145</v>
+        <v>32</v>
       </c>
       <c r="P33" t="s">
-        <v>145</v>
+        <v>32</v>
       </c>
       <c r="Q33" t="s">
-        <v>163</v>
+        <v>59</v>
       </c>
       <c r="R33">
         <v>613</v>
       </c>
       <c r="S33" t="s">
-        <v>207</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="1:19">
@@ -3073,19 +3716,19 @@
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>32</v>
+        <v>134</v>
       </c>
       <c r="D34" t="s">
-        <v>68</v>
+        <v>135</v>
       </c>
       <c r="E34" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="F34" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="G34" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="H34">
         <v>0.551</v>
@@ -3106,22 +3749,22 @@
         <v>1000</v>
       </c>
       <c r="N34" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="O34" t="s">
-        <v>146</v>
+        <v>39</v>
       </c>
       <c r="P34" t="s">
-        <v>152</v>
+        <v>54</v>
       </c>
       <c r="Q34" t="s">
-        <v>162</v>
+        <v>55</v>
       </c>
       <c r="R34">
         <v>121</v>
       </c>
       <c r="S34" t="s">
-        <v>208</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" spans="1:19">
@@ -3132,19 +3775,19 @@
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>32</v>
+        <v>134</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>135</v>
       </c>
       <c r="E35" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="F35" t="s">
-        <v>123</v>
+        <v>76</v>
       </c>
       <c r="G35" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="H35">
         <v>1.112</v>
@@ -3153,7 +3796,7 @@
         <v>1.112</v>
       </c>
       <c r="J35">
-        <v>897.9299999999999</v>
+        <v>897.93</v>
       </c>
       <c r="K35">
         <v>998.5</v>
@@ -3165,22 +3808,22 @@
         <v>1000</v>
       </c>
       <c r="N35" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="O35" t="s">
-        <v>146</v>
+        <v>39</v>
       </c>
       <c r="P35" t="s">
-        <v>154</v>
+        <v>77</v>
       </c>
       <c r="Q35" t="s">
-        <v>165</v>
+        <v>78</v>
       </c>
       <c r="R35">
         <v>131</v>
       </c>
       <c r="S35" t="s">
-        <v>209</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="1:19">
@@ -3191,19 +3834,19 @@
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>33</v>
+        <v>139</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>140</v>
       </c>
       <c r="E36" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F36" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="G36" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="H36">
         <v>0.9738</v>
@@ -3215,7 +3858,7 @@
         <v>95.8</v>
       </c>
       <c r="K36">
-        <v>93.29000000000001</v>
+        <v>93.29</v>
       </c>
       <c r="L36">
         <v>0.09</v>
@@ -3224,22 +3867,22 @@
         <v>93.38</v>
       </c>
       <c r="N36" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="O36" t="s">
-        <v>146</v>
+        <v>39</v>
       </c>
       <c r="P36" t="s">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="Q36" t="s">
-        <v>169</v>
+        <v>112</v>
       </c>
       <c r="R36">
         <v>145</v>
       </c>
       <c r="S36" t="s">
-        <v>210</v>
+        <v>141</v>
       </c>
     </row>
     <row r="37" spans="1:19">
@@ -3250,19 +3893,19 @@
         <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>33</v>
+        <v>139</v>
       </c>
       <c r="D37" t="s">
-        <v>69</v>
+        <v>140</v>
       </c>
       <c r="E37" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="F37" t="s">
-        <v>123</v>
+        <v>76</v>
       </c>
       <c r="G37" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="H37">
         <v>1.093</v>
@@ -3283,22 +3926,22 @@
         <v>667</v>
       </c>
       <c r="N37" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="O37" t="s">
-        <v>146</v>
+        <v>39</v>
       </c>
       <c r="P37" t="s">
-        <v>154</v>
+        <v>77</v>
       </c>
       <c r="Q37" t="s">
-        <v>165</v>
+        <v>78</v>
       </c>
       <c r="R37">
         <v>131</v>
       </c>
       <c r="S37" t="s">
-        <v>211</v>
+        <v>142</v>
       </c>
     </row>
     <row r="38" spans="1:19">
@@ -3309,19 +3952,19 @@
         <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>34</v>
+        <v>143</v>
       </c>
       <c r="D38" t="s">
-        <v>70</v>
+        <v>144</v>
       </c>
       <c r="E38" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F38" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="G38" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="H38">
         <v>0.9669</v>
@@ -3333,7 +3976,7 @@
         <v>96.48</v>
       </c>
       <c r="K38">
-        <v>93.29000000000001</v>
+        <v>93.29</v>
       </c>
       <c r="L38">
         <v>0.09</v>
@@ -3342,22 +3985,22 @@
         <v>93.38</v>
       </c>
       <c r="N38" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="O38" t="s">
-        <v>146</v>
+        <v>39</v>
       </c>
       <c r="P38" t="s">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="Q38" t="s">
-        <v>169</v>
+        <v>112</v>
       </c>
       <c r="R38">
         <v>145</v>
       </c>
       <c r="S38" t="s">
-        <v>212</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39" spans="1:19">
@@ -3368,19 +4011,19 @@
         <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>35</v>
+        <v>146</v>
       </c>
       <c r="D39" t="s">
-        <v>71</v>
+        <v>147</v>
       </c>
       <c r="E39" t="s">
-        <v>109</v>
+        <v>148</v>
       </c>
       <c r="F39" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="G39" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="H39">
         <v>1.678</v>
@@ -3401,22 +4044,22 @@
         <v>1000</v>
       </c>
       <c r="N39" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="O39" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P39" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="Q39" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="R39">
         <v>512</v>
       </c>
       <c r="S39" t="s">
-        <v>213</v>
+        <v>153</v>
       </c>
     </row>
     <row r="40" spans="1:19">
@@ -3427,19 +4070,19 @@
         <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>35</v>
+        <v>146</v>
       </c>
       <c r="D40" t="s">
-        <v>72</v>
+        <v>154</v>
       </c>
       <c r="E40" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="F40" t="s">
-        <v>120</v>
+        <v>53</v>
       </c>
       <c r="G40" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="H40">
         <v>1.9367</v>
@@ -3460,22 +4103,22 @@
         <v>667</v>
       </c>
       <c r="N40" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="O40" t="s">
-        <v>146</v>
+        <v>39</v>
       </c>
       <c r="P40" t="s">
-        <v>152</v>
+        <v>54</v>
       </c>
       <c r="Q40" t="s">
-        <v>162</v>
+        <v>55</v>
       </c>
       <c r="R40">
         <v>121</v>
       </c>
       <c r="S40" t="s">
-        <v>214</v>
+        <v>155</v>
       </c>
     </row>
     <row r="41" spans="1:19">
@@ -3486,19 +4129,19 @@
         <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>36</v>
+        <v>156</v>
       </c>
       <c r="D41" t="s">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="E41" t="s">
-        <v>110</v>
+        <v>158</v>
       </c>
       <c r="F41" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="G41" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="H41">
         <v>0.8232</v>
@@ -3519,22 +4162,22 @@
         <v>667</v>
       </c>
       <c r="N41" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="O41" t="s">
-        <v>146</v>
+        <v>39</v>
       </c>
       <c r="P41" t="s">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="Q41" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="R41">
         <v>142</v>
       </c>
       <c r="S41" t="s">
-        <v>215</v>
+        <v>161</v>
       </c>
     </row>
     <row r="42" spans="1:19">
@@ -3545,19 +4188,19 @@
         <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>37</v>
+        <v>162</v>
       </c>
       <c r="D42" t="s">
-        <v>74</v>
+        <v>163</v>
       </c>
       <c r="E42" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="F42" t="s">
-        <v>120</v>
+        <v>53</v>
       </c>
       <c r="G42" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="H42">
         <v>1.9291</v>
@@ -3578,22 +4221,22 @@
         <v>1000</v>
       </c>
       <c r="N42" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="O42" t="s">
-        <v>146</v>
+        <v>39</v>
       </c>
       <c r="P42" t="s">
-        <v>152</v>
+        <v>54</v>
       </c>
       <c r="Q42" t="s">
-        <v>162</v>
+        <v>55</v>
       </c>
       <c r="R42">
         <v>121</v>
       </c>
       <c r="S42" t="s">
-        <v>216</v>
+        <v>164</v>
       </c>
     </row>
     <row r="43" spans="1:19">
@@ -3604,19 +4247,19 @@
         <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>37</v>
+        <v>162</v>
       </c>
       <c r="D43" t="s">
-        <v>74</v>
+        <v>163</v>
       </c>
       <c r="E43" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="F43" t="s">
-        <v>123</v>
+        <v>76</v>
       </c>
       <c r="G43" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="H43">
         <v>1.054</v>
@@ -3637,22 +4280,22 @@
         <v>1000</v>
       </c>
       <c r="N43" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="O43" t="s">
-        <v>146</v>
+        <v>39</v>
       </c>
       <c r="P43" t="s">
-        <v>154</v>
+        <v>77</v>
       </c>
       <c r="Q43" t="s">
-        <v>165</v>
+        <v>78</v>
       </c>
       <c r="R43">
         <v>131</v>
       </c>
       <c r="S43" t="s">
-        <v>217</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="1:19">
@@ -3663,19 +4306,19 @@
         <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>37</v>
+        <v>162</v>
       </c>
       <c r="D44" t="s">
-        <v>74</v>
+        <v>163</v>
       </c>
       <c r="E44" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="F44" t="s">
-        <v>121</v>
+        <v>58</v>
       </c>
       <c r="G44" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="H44">
         <v>0.3355</v>
@@ -3696,22 +4339,22 @@
         <v>1000</v>
       </c>
       <c r="N44" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="O44" t="s">
-        <v>145</v>
+        <v>32</v>
       </c>
       <c r="P44" t="s">
-        <v>145</v>
+        <v>32</v>
       </c>
       <c r="Q44" t="s">
-        <v>163</v>
+        <v>59</v>
       </c>
       <c r="R44">
         <v>613</v>
       </c>
       <c r="S44" t="s">
-        <v>218</v>
+        <v>166</v>
       </c>
     </row>
     <row r="45" spans="1:19">
@@ -3722,19 +4365,19 @@
         <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>38</v>
+        <v>167</v>
       </c>
       <c r="D45" t="s">
-        <v>75</v>
+        <v>168</v>
       </c>
       <c r="E45" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="F45" t="s">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="G45" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="H45">
         <v>1.0894</v>
@@ -3755,22 +4398,22 @@
         <v>667</v>
       </c>
       <c r="N45" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="O45" t="s">
-        <v>146</v>
+        <v>39</v>
       </c>
       <c r="P45" t="s">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="Q45" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="R45">
         <v>147</v>
       </c>
       <c r="S45" t="s">
-        <v>219</v>
+        <v>172</v>
       </c>
     </row>
     <row r="46" spans="1:19">
@@ -3781,19 +4424,19 @@
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>38</v>
+        <v>167</v>
       </c>
       <c r="D46" t="s">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="E46" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="F46" t="s">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="G46" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="H46">
         <v>1.0894</v>
@@ -3814,22 +4457,22 @@
         <v>1000</v>
       </c>
       <c r="N46" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="O46" t="s">
-        <v>146</v>
+        <v>39</v>
       </c>
       <c r="P46" t="s">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="Q46" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="R46">
         <v>147</v>
       </c>
       <c r="S46" t="s">
-        <v>220</v>
+        <v>174</v>
       </c>
     </row>
     <row r="47" spans="1:19">
@@ -3839,20 +4482,20 @@
       <c r="B47">
         <v>46</v>
       </c>
-      <c r="C47" t="s">
-        <v>39</v>
+      <c r="C47" s="2" t="s">
+        <v>175</v>
       </c>
       <c r="D47" t="s">
-        <v>77</v>
+        <v>176</v>
       </c>
       <c r="E47" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="F47" t="s">
-        <v>123</v>
+        <v>76</v>
       </c>
       <c r="G47" t="s">
-        <v>139</v>
+        <v>177</v>
       </c>
       <c r="H47">
         <v>0.984</v>
@@ -3873,22 +4516,22 @@
         <v>0</v>
       </c>
       <c r="N47" t="s">
-        <v>142</v>
+        <v>178</v>
       </c>
       <c r="O47" t="s">
-        <v>146</v>
+        <v>39</v>
       </c>
       <c r="P47" t="s">
-        <v>154</v>
+        <v>77</v>
       </c>
       <c r="Q47" t="s">
-        <v>165</v>
+        <v>78</v>
       </c>
       <c r="R47">
         <v>131</v>
       </c>
       <c r="S47" t="s">
-        <v>221</v>
+        <v>179</v>
       </c>
     </row>
     <row r="48" spans="1:19">
@@ -3898,20 +4541,20 @@
       <c r="B48">
         <v>47</v>
       </c>
-      <c r="C48" t="s">
-        <v>39</v>
+      <c r="C48" s="2" t="s">
+        <v>175</v>
       </c>
       <c r="D48" t="s">
-        <v>77</v>
+        <v>176</v>
       </c>
       <c r="E48" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="F48" t="s">
-        <v>123</v>
+        <v>76</v>
       </c>
       <c r="G48" t="s">
-        <v>139</v>
+        <v>177</v>
       </c>
       <c r="H48">
         <v>0.984</v>
@@ -3932,22 +4575,22 @@
         <v>0</v>
       </c>
       <c r="N48" t="s">
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="O48" t="s">
-        <v>146</v>
+        <v>39</v>
       </c>
       <c r="P48" t="s">
-        <v>154</v>
+        <v>77</v>
       </c>
       <c r="Q48" t="s">
-        <v>165</v>
+        <v>78</v>
       </c>
       <c r="R48">
         <v>131</v>
       </c>
       <c r="S48" t="s">
-        <v>222</v>
+        <v>181</v>
       </c>
     </row>
     <row r="49" spans="1:19">
@@ -3958,19 +4601,19 @@
         <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>40</v>
+        <v>182</v>
       </c>
       <c r="D49" t="s">
-        <v>78</v>
+        <v>183</v>
       </c>
       <c r="E49" t="s">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="F49" t="s">
-        <v>118</v>
+        <v>38</v>
       </c>
       <c r="G49" t="s">
-        <v>140</v>
+        <v>184</v>
       </c>
       <c r="H49">
         <v>0.8646</v>
@@ -3991,22 +4634,22 @@
         <v>346.59</v>
       </c>
       <c r="N49" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="O49" t="s">
-        <v>146</v>
+        <v>39</v>
       </c>
       <c r="P49" t="s">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="Q49" t="s">
-        <v>160</v>
+        <v>41</v>
       </c>
       <c r="R49">
         <v>144</v>
       </c>
       <c r="S49" t="s">
-        <v>223</v>
+        <v>185</v>
       </c>
     </row>
     <row r="50" spans="1:19">
@@ -4017,25 +4660,25 @@
         <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>40</v>
+        <v>182</v>
       </c>
       <c r="D50" t="s">
-        <v>78</v>
+        <v>183</v>
       </c>
       <c r="E50" t="s">
-        <v>112</v>
+        <v>186</v>
       </c>
       <c r="F50" t="s">
-        <v>134</v>
+        <v>187</v>
       </c>
       <c r="G50" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="H50">
-        <v>0.7161999999999999</v>
+        <v>0.7162</v>
       </c>
       <c r="I50">
-        <v>0.7161999999999999</v>
+        <v>0.7162</v>
       </c>
       <c r="J50">
         <v>1394.58</v>
@@ -4050,22 +4693,22 @@
         <v>1000</v>
       </c>
       <c r="N50" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="O50" t="s">
-        <v>145</v>
+        <v>32</v>
       </c>
       <c r="P50" t="s">
-        <v>145</v>
+        <v>32</v>
       </c>
       <c r="Q50" t="s">
-        <v>163</v>
+        <v>59</v>
       </c>
       <c r="R50">
         <v>613</v>
       </c>
       <c r="S50" t="s">
-        <v>224</v>
+        <v>188</v>
       </c>
     </row>
     <row r="51" spans="1:19">
@@ -4076,19 +4719,19 @@
         <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>40</v>
+        <v>182</v>
       </c>
       <c r="D51" t="s">
-        <v>79</v>
+        <v>189</v>
       </c>
       <c r="E51" t="s">
         <v>106</v>
       </c>
       <c r="F51" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="G51" t="s">
-        <v>140</v>
+        <v>184</v>
       </c>
       <c r="H51">
         <v>2.1254</v>
@@ -4109,22 +4752,22 @@
         <v>842.98</v>
       </c>
       <c r="N51" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="O51" t="s">
-        <v>146</v>
+        <v>39</v>
       </c>
       <c r="P51" t="s">
-        <v>152</v>
+        <v>54</v>
       </c>
       <c r="Q51" t="s">
-        <v>167</v>
+        <v>96</v>
       </c>
       <c r="R51">
         <v>124</v>
       </c>
       <c r="S51" t="s">
-        <v>225</v>
+        <v>190</v>
       </c>
     </row>
     <row r="52" spans="1:19">
@@ -4135,28 +4778,28 @@
         <v>51</v>
       </c>
       <c r="C52" t="s">
-        <v>40</v>
+        <v>182</v>
       </c>
       <c r="D52" t="s">
-        <v>79</v>
+        <v>189</v>
       </c>
       <c r="E52" t="s">
-        <v>112</v>
+        <v>186</v>
       </c>
       <c r="F52" t="s">
-        <v>134</v>
+        <v>187</v>
       </c>
       <c r="G52" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="H52">
-        <v>0.7161999999999999</v>
+        <v>0.7162</v>
       </c>
       <c r="I52">
-        <v>0.7161999999999999</v>
+        <v>0.7162</v>
       </c>
       <c r="J52">
-        <v>930.1900000000001</v>
+        <v>930.19</v>
       </c>
       <c r="K52">
         <v>666.2</v>
@@ -4168,22 +4811,22 @@
         <v>667</v>
       </c>
       <c r="N52" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="O52" t="s">
-        <v>145</v>
+        <v>32</v>
       </c>
       <c r="P52" t="s">
-        <v>145</v>
+        <v>32</v>
       </c>
       <c r="Q52" t="s">
-        <v>163</v>
+        <v>59</v>
       </c>
       <c r="R52">
         <v>613</v>
       </c>
       <c r="S52" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
     </row>
     <row r="53" spans="1:19">
@@ -4194,19 +4837,19 @@
         <v>52</v>
       </c>
       <c r="C53" t="s">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c r="D53" t="s">
-        <v>80</v>
+        <v>193</v>
       </c>
       <c r="E53" t="s">
-        <v>113</v>
+        <v>194</v>
       </c>
       <c r="F53" t="s">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="G53" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="H53">
         <v>2.2795</v>
@@ -4227,22 +4870,22 @@
         <v>1000</v>
       </c>
       <c r="N53" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="O53" t="s">
-        <v>144</v>
+        <v>24</v>
       </c>
       <c r="P53" t="s">
-        <v>157</v>
+        <v>196</v>
       </c>
       <c r="Q53" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="R53">
         <v>313</v>
       </c>
       <c r="S53" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
     </row>
     <row r="54" spans="1:19">
@@ -4253,19 +4896,19 @@
         <v>53</v>
       </c>
       <c r="C54" t="s">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c r="D54" t="s">
-        <v>81</v>
+        <v>199</v>
       </c>
       <c r="E54" t="s">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="F54" t="s">
-        <v>116</v>
+        <v>21</v>
       </c>
       <c r="G54" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="H54">
         <v>0.986</v>
@@ -4286,22 +4929,22 @@
         <v>667</v>
       </c>
       <c r="N54" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="O54" t="s">
-        <v>144</v>
+        <v>24</v>
       </c>
       <c r="P54" t="s">
-        <v>149</v>
+        <v>25</v>
       </c>
       <c r="Q54" t="s">
-        <v>158</v>
+        <v>26</v>
       </c>
       <c r="R54">
         <v>321</v>
       </c>
       <c r="S54" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
     </row>
     <row r="55" spans="1:19">
@@ -4312,19 +4955,19 @@
         <v>54</v>
       </c>
       <c r="C55" t="s">
-        <v>42</v>
+        <v>201</v>
       </c>
       <c r="D55" t="s">
-        <v>82</v>
+        <v>202</v>
       </c>
       <c r="E55" t="s">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="F55" t="s">
-        <v>116</v>
+        <v>21</v>
       </c>
       <c r="G55" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="H55">
         <v>0.978</v>
@@ -4333,7 +4976,7 @@
         <v>0.978</v>
       </c>
       <c r="J55">
-        <v>681.1900000000001</v>
+        <v>681.19</v>
       </c>
       <c r="K55">
         <v>666.2</v>
@@ -4345,22 +4988,22 @@
         <v>667</v>
       </c>
       <c r="N55" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="O55" t="s">
-        <v>144</v>
+        <v>24</v>
       </c>
       <c r="P55" t="s">
-        <v>149</v>
+        <v>25</v>
       </c>
       <c r="Q55" t="s">
-        <v>158</v>
+        <v>26</v>
       </c>
       <c r="R55">
         <v>321</v>
       </c>
       <c r="S55" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
     </row>
     <row r="56" spans="1:19">
@@ -4371,19 +5014,19 @@
         <v>55</v>
       </c>
       <c r="C56" t="s">
-        <v>42</v>
+        <v>201</v>
       </c>
       <c r="D56" t="s">
-        <v>83</v>
+        <v>204</v>
       </c>
       <c r="E56" t="s">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="F56" t="s">
-        <v>116</v>
+        <v>21</v>
       </c>
       <c r="G56" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="H56">
         <v>0.978</v>
@@ -4392,7 +5035,7 @@
         <v>0.978</v>
       </c>
       <c r="J56">
-        <v>681.1900000000001</v>
+        <v>681.19</v>
       </c>
       <c r="K56">
         <v>666.2</v>
@@ -4404,22 +5047,22 @@
         <v>667</v>
       </c>
       <c r="N56" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="O56" t="s">
-        <v>144</v>
+        <v>24</v>
       </c>
       <c r="P56" t="s">
-        <v>149</v>
+        <v>25</v>
       </c>
       <c r="Q56" t="s">
-        <v>158</v>
+        <v>26</v>
       </c>
       <c r="R56">
         <v>321</v>
       </c>
       <c r="S56" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
     </row>
     <row r="57" spans="1:19">
@@ -4430,19 +5073,19 @@
         <v>56</v>
       </c>
       <c r="C57" t="s">
-        <v>42</v>
+        <v>201</v>
       </c>
       <c r="D57" t="s">
-        <v>83</v>
+        <v>204</v>
       </c>
       <c r="E57" t="s">
-        <v>114</v>
+        <v>206</v>
       </c>
       <c r="F57" t="s">
-        <v>136</v>
+        <v>207</v>
       </c>
       <c r="G57" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="H57">
         <v>0.649</v>
@@ -4463,22 +5106,22 @@
         <v>667</v>
       </c>
       <c r="N57" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="O57" t="s">
-        <v>145</v>
+        <v>32</v>
       </c>
       <c r="P57" t="s">
-        <v>145</v>
+        <v>32</v>
       </c>
       <c r="Q57" t="s">
-        <v>163</v>
+        <v>59</v>
       </c>
       <c r="R57">
         <v>613</v>
       </c>
       <c r="S57" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
     </row>
     <row r="58" spans="1:19">
@@ -4489,19 +5132,19 @@
         <v>57</v>
       </c>
       <c r="C58" t="s">
-        <v>43</v>
+        <v>209</v>
       </c>
       <c r="D58" t="s">
-        <v>84</v>
+        <v>210</v>
       </c>
       <c r="E58" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="F58" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="G58" t="s">
-        <v>140</v>
+        <v>184</v>
       </c>
       <c r="H58">
         <v>1.1231</v>
@@ -4513,31 +5156,31 @@
         <v>736.3</v>
       </c>
       <c r="K58">
-        <v>822.8099999999999</v>
+        <v>822.81</v>
       </c>
       <c r="L58">
         <v>4.13</v>
       </c>
       <c r="M58">
-        <v>818.6799999999999</v>
+        <v>818.68</v>
       </c>
       <c r="N58" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="O58" t="s">
-        <v>146</v>
+        <v>39</v>
       </c>
       <c r="P58" t="s">
-        <v>152</v>
+        <v>54</v>
       </c>
       <c r="Q58" t="s">
-        <v>167</v>
+        <v>96</v>
       </c>
       <c r="R58">
         <v>124</v>
       </c>
       <c r="S58" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
     </row>
     <row r="59" spans="1:19">
@@ -4548,19 +5191,19 @@
         <v>58</v>
       </c>
       <c r="C59" t="s">
-        <v>44</v>
+        <v>212</v>
       </c>
       <c r="D59" t="s">
-        <v>85</v>
+        <v>213</v>
       </c>
       <c r="E59" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="F59" t="s">
-        <v>117</v>
+        <v>31</v>
       </c>
       <c r="G59" t="s">
-        <v>140</v>
+        <v>184</v>
       </c>
       <c r="H59">
         <v>1.3007</v>
@@ -4581,22 +5224,22 @@
         <v>1190.67</v>
       </c>
       <c r="N59" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="O59" t="s">
-        <v>145</v>
+        <v>32</v>
       </c>
       <c r="P59" t="s">
-        <v>145</v>
+        <v>32</v>
       </c>
       <c r="Q59" t="s">
-        <v>159</v>
+        <v>33</v>
       </c>
       <c r="R59">
         <v>611</v>
       </c>
       <c r="S59" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
     </row>
     <row r="60" spans="1:19">
@@ -4607,19 +5250,19 @@
         <v>59</v>
       </c>
       <c r="C60" t="s">
-        <v>44</v>
+        <v>212</v>
       </c>
       <c r="D60" t="s">
-        <v>85</v>
+        <v>213</v>
       </c>
       <c r="E60" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="F60" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G60" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="H60">
         <v>1.3592</v>
@@ -4640,22 +5283,22 @@
         <v>1000</v>
       </c>
       <c r="N60" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="O60" t="s">
-        <v>147</v>
+        <v>71</v>
       </c>
       <c r="P60" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="Q60" t="s">
-        <v>170</v>
+        <v>129</v>
       </c>
       <c r="R60">
         <v>211</v>
       </c>
       <c r="S60" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
     </row>
     <row r="61" spans="1:19">
@@ -4666,19 +5309,19 @@
         <v>60</v>
       </c>
       <c r="C61" t="s">
-        <v>44</v>
+        <v>212</v>
       </c>
       <c r="D61" t="s">
-        <v>85</v>
+        <v>213</v>
       </c>
       <c r="E61" t="s">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="F61" t="s">
-        <v>116</v>
+        <v>21</v>
       </c>
       <c r="G61" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="H61">
         <v>0.913</v>
@@ -4699,22 +5342,22 @@
         <v>1000</v>
       </c>
       <c r="N61" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="O61" t="s">
-        <v>144</v>
+        <v>24</v>
       </c>
       <c r="P61" t="s">
-        <v>149</v>
+        <v>25</v>
       </c>
       <c r="Q61" t="s">
-        <v>158</v>
+        <v>26</v>
       </c>
       <c r="R61">
         <v>321</v>
       </c>
       <c r="S61" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
     </row>
     <row r="62" spans="1:19">
@@ -4725,19 +5368,19 @@
         <v>61</v>
       </c>
       <c r="C62" t="s">
-        <v>44</v>
+        <v>212</v>
       </c>
       <c r="D62" t="s">
-        <v>86</v>
+        <v>217</v>
       </c>
       <c r="E62" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="F62" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G62" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="H62">
         <v>1.3592</v>
@@ -4758,22 +5401,22 @@
         <v>667</v>
       </c>
       <c r="N62" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="O62" t="s">
-        <v>147</v>
+        <v>71</v>
       </c>
       <c r="P62" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="Q62" t="s">
-        <v>170</v>
+        <v>129</v>
       </c>
       <c r="R62">
         <v>211</v>
       </c>
       <c r="S62" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
     </row>
     <row r="63" spans="1:19">
@@ -4784,19 +5427,19 @@
         <v>62</v>
       </c>
       <c r="C63" t="s">
-        <v>44</v>
+        <v>212</v>
       </c>
       <c r="D63" t="s">
-        <v>86</v>
+        <v>217</v>
       </c>
       <c r="E63" t="s">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="F63" t="s">
-        <v>116</v>
+        <v>21</v>
       </c>
       <c r="G63" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="H63">
         <v>0.913</v>
@@ -4805,7 +5448,7 @@
         <v>0.913</v>
       </c>
       <c r="J63">
-        <v>729.6799999999999</v>
+        <v>729.68</v>
       </c>
       <c r="K63">
         <v>666.2</v>
@@ -4817,22 +5460,22 @@
         <v>667</v>
       </c>
       <c r="N63" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="O63" t="s">
-        <v>144</v>
+        <v>24</v>
       </c>
       <c r="P63" t="s">
-        <v>149</v>
+        <v>25</v>
       </c>
       <c r="Q63" t="s">
-        <v>158</v>
+        <v>26</v>
       </c>
       <c r="R63">
         <v>321</v>
       </c>
       <c r="S63" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
     </row>
     <row r="64" spans="1:19">
@@ -4843,19 +5486,19 @@
         <v>63</v>
       </c>
       <c r="C64" t="s">
-        <v>45</v>
+        <v>220</v>
       </c>
       <c r="D64" t="s">
-        <v>87</v>
+        <v>221</v>
       </c>
       <c r="E64" t="s">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="F64" t="s">
-        <v>116</v>
+        <v>21</v>
       </c>
       <c r="G64" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="H64">
         <v>0.867</v>
@@ -4876,22 +5519,22 @@
         <v>667</v>
       </c>
       <c r="N64" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="O64" t="s">
-        <v>144</v>
+        <v>24</v>
       </c>
       <c r="P64" t="s">
-        <v>149</v>
+        <v>25</v>
       </c>
       <c r="Q64" t="s">
-        <v>158</v>
+        <v>26</v>
       </c>
       <c r="R64">
         <v>321</v>
       </c>
       <c r="S64" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
     </row>
     <row r="65" spans="1:19">
@@ -4902,19 +5545,19 @@
         <v>64</v>
       </c>
       <c r="C65" t="s">
-        <v>46</v>
+        <v>223</v>
       </c>
       <c r="D65" t="s">
-        <v>88</v>
+        <v>224</v>
       </c>
       <c r="E65" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="F65" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G65" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="H65">
         <v>1.2474</v>
@@ -4923,7 +5566,7 @@
         <v>1.2474</v>
       </c>
       <c r="J65">
-        <v>534.0700000000001</v>
+        <v>534.07</v>
       </c>
       <c r="K65">
         <v>666.2</v>
@@ -4935,22 +5578,22 @@
         <v>667</v>
       </c>
       <c r="N65" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="O65" t="s">
-        <v>147</v>
+        <v>71</v>
       </c>
       <c r="P65" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="Q65" t="s">
-        <v>170</v>
+        <v>129</v>
       </c>
       <c r="R65">
         <v>211</v>
       </c>
       <c r="S65" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
     </row>
     <row r="66" spans="1:19">
@@ -4961,19 +5604,19 @@
         <v>65</v>
       </c>
       <c r="C66" t="s">
-        <v>46</v>
+        <v>223</v>
       </c>
       <c r="D66" t="s">
-        <v>88</v>
+        <v>224</v>
       </c>
       <c r="E66" t="s">
-        <v>113</v>
+        <v>194</v>
       </c>
       <c r="F66" t="s">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="G66" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="H66">
         <v>1.9434</v>
@@ -4994,22 +5637,22 @@
         <v>667</v>
       </c>
       <c r="N66" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="O66" t="s">
-        <v>144</v>
+        <v>24</v>
       </c>
       <c r="P66" t="s">
-        <v>157</v>
+        <v>196</v>
       </c>
       <c r="Q66" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="R66">
         <v>313</v>
       </c>
       <c r="S66" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
     </row>
     <row r="67" spans="1:19">
@@ -5020,28 +5663,28 @@
         <v>66</v>
       </c>
       <c r="C67" t="s">
-        <v>47</v>
+        <v>227</v>
       </c>
       <c r="D67" t="s">
-        <v>77</v>
+        <v>176</v>
       </c>
       <c r="E67" t="s">
-        <v>112</v>
+        <v>186</v>
       </c>
       <c r="F67" t="s">
-        <v>134</v>
+        <v>187</v>
       </c>
       <c r="G67" t="s">
-        <v>140</v>
+        <v>184</v>
       </c>
       <c r="H67">
-        <v>0.7161999999999999</v>
+        <v>0.7162</v>
       </c>
       <c r="I67">
-        <v>0.7161999999999999</v>
+        <v>0.7162</v>
       </c>
       <c r="J67">
-        <v>930.1900000000001</v>
+        <v>930.19</v>
       </c>
       <c r="K67">
         <v>666.2</v>
@@ -5053,22 +5696,22 @@
         <v>0</v>
       </c>
       <c r="N67" t="s">
-        <v>142</v>
+        <v>178</v>
       </c>
       <c r="O67" t="s">
-        <v>145</v>
+        <v>32</v>
       </c>
       <c r="P67" t="s">
-        <v>145</v>
+        <v>32</v>
       </c>
       <c r="Q67" t="s">
-        <v>163</v>
+        <v>59</v>
       </c>
       <c r="R67">
         <v>613</v>
       </c>
       <c r="S67" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
     </row>
     <row r="68" spans="1:19">
@@ -5079,25 +5722,25 @@
         <v>67</v>
       </c>
       <c r="C68" t="s">
-        <v>47</v>
+        <v>227</v>
       </c>
       <c r="D68" t="s">
-        <v>77</v>
+        <v>176</v>
       </c>
       <c r="E68" t="s">
-        <v>112</v>
+        <v>186</v>
       </c>
       <c r="F68" t="s">
-        <v>134</v>
+        <v>187</v>
       </c>
       <c r="G68" t="s">
-        <v>140</v>
+        <v>184</v>
       </c>
       <c r="H68">
-        <v>0.7161999999999999</v>
+        <v>0.7162</v>
       </c>
       <c r="I68">
-        <v>0.7161999999999999</v>
+        <v>0.7162</v>
       </c>
       <c r="J68">
         <v>1394.58</v>
@@ -5112,22 +5755,22 @@
         <v>0</v>
       </c>
       <c r="N68" t="s">
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="O68" t="s">
-        <v>145</v>
+        <v>32</v>
       </c>
       <c r="P68" t="s">
-        <v>145</v>
+        <v>32</v>
       </c>
       <c r="Q68" t="s">
-        <v>163</v>
+        <v>59</v>
       </c>
       <c r="R68">
         <v>613</v>
       </c>
       <c r="S68" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
     </row>
     <row r="69" spans="1:19">
@@ -5138,19 +5781,19 @@
         <v>68</v>
       </c>
       <c r="C69" t="s">
-        <v>48</v>
+        <v>230</v>
       </c>
       <c r="D69" t="s">
-        <v>89</v>
+        <v>231</v>
       </c>
       <c r="E69" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="F69" t="s">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="G69" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="H69">
         <v>1.0286</v>
@@ -5171,22 +5814,22 @@
         <v>1000</v>
       </c>
       <c r="N69" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="O69" t="s">
-        <v>146</v>
+        <v>39</v>
       </c>
       <c r="P69" t="s">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="Q69" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="R69">
         <v>147</v>
       </c>
       <c r="S69" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
     </row>
     <row r="70" spans="1:19">
@@ -5197,19 +5840,19 @@
         <v>69</v>
       </c>
       <c r="C70" t="s">
-        <v>48</v>
+        <v>230</v>
       </c>
       <c r="D70" t="s">
-        <v>90</v>
+        <v>233</v>
       </c>
       <c r="E70" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="F70" t="s">
-        <v>123</v>
+        <v>76</v>
       </c>
       <c r="G70" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="H70">
         <v>0.972</v>
@@ -5218,7 +5861,7 @@
         <v>0.972</v>
       </c>
       <c r="J70">
-        <v>685.1900000000001</v>
+        <v>685.19</v>
       </c>
       <c r="K70">
         <v>666</v>
@@ -5230,22 +5873,22 @@
         <v>667</v>
       </c>
       <c r="N70" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="O70" t="s">
-        <v>146</v>
+        <v>39</v>
       </c>
       <c r="P70" t="s">
-        <v>154</v>
+        <v>77</v>
       </c>
       <c r="Q70" t="s">
-        <v>165</v>
+        <v>78</v>
       </c>
       <c r="R70">
         <v>131</v>
       </c>
       <c r="S70" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="71" spans="1:19">
@@ -5256,19 +5899,19 @@
         <v>70</v>
       </c>
       <c r="C71" t="s">
-        <v>49</v>
+        <v>235</v>
       </c>
       <c r="D71" t="s">
-        <v>91</v>
+        <v>236</v>
       </c>
       <c r="E71" t="s">
-        <v>113</v>
+        <v>194</v>
       </c>
       <c r="F71" t="s">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="G71" t="s">
-        <v>140</v>
+        <v>184</v>
       </c>
       <c r="H71">
         <v>2.3877</v>
@@ -5286,25 +5929,25 @@
         <v>4.09</v>
       </c>
       <c r="M71">
-        <v>810.3200000000001</v>
+        <v>810.32</v>
       </c>
       <c r="N71" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="O71" t="s">
-        <v>144</v>
+        <v>24</v>
       </c>
       <c r="P71" t="s">
-        <v>157</v>
+        <v>196</v>
       </c>
       <c r="Q71" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="R71">
         <v>313</v>
       </c>
       <c r="S71" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="72" spans="1:19">
@@ -5315,19 +5958,19 @@
         <v>71</v>
       </c>
       <c r="C72" t="s">
-        <v>50</v>
+        <v>238</v>
       </c>
       <c r="D72" t="s">
-        <v>92</v>
+        <v>239</v>
       </c>
       <c r="E72" t="s">
-        <v>115</v>
+        <v>240</v>
       </c>
       <c r="F72" t="s">
-        <v>137</v>
+        <v>241</v>
       </c>
       <c r="G72" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="H72">
         <v>1.216</v>
@@ -5348,22 +5991,22 @@
         <v>667</v>
       </c>
       <c r="N72" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="O72" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P72" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="Q72" t="s">
-        <v>175</v>
+        <v>242</v>
       </c>
       <c r="R72">
         <v>511</v>
       </c>
       <c r="S72" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="73" spans="1:19">
@@ -5374,19 +6017,19 @@
         <v>72</v>
       </c>
       <c r="C73" t="s">
-        <v>51</v>
+        <v>244</v>
       </c>
       <c r="D73" t="s">
-        <v>77</v>
+        <v>176</v>
       </c>
       <c r="E73" t="s">
-        <v>115</v>
+        <v>240</v>
       </c>
       <c r="F73" t="s">
-        <v>137</v>
+        <v>241</v>
       </c>
       <c r="G73" t="s">
-        <v>139</v>
+        <v>177</v>
       </c>
       <c r="H73">
         <v>1.19</v>
@@ -5404,25 +6047,25 @@
         <v>0</v>
       </c>
       <c r="M73">
-        <v>9.869999999999999</v>
+        <v>9.87</v>
       </c>
       <c r="N73" t="s">
-        <v>142</v>
+        <v>178</v>
       </c>
       <c r="O73" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P73" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="Q73" t="s">
-        <v>175</v>
+        <v>242</v>
       </c>
       <c r="R73">
         <v>511</v>
       </c>
       <c r="S73" t="s">
-        <v>221</v>
+        <v>179</v>
       </c>
     </row>
     <row r="74" spans="1:19">
@@ -5433,19 +6076,19 @@
         <v>73</v>
       </c>
       <c r="C74" t="s">
-        <v>52</v>
+        <v>245</v>
       </c>
       <c r="D74" t="s">
-        <v>93</v>
+        <v>246</v>
       </c>
       <c r="E74" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="F74" t="s">
-        <v>122</v>
+        <v>70</v>
       </c>
       <c r="G74" t="s">
-        <v>140</v>
+        <v>184</v>
       </c>
       <c r="H74">
         <v>1.765</v>
@@ -5466,16 +6109,16 @@
         <v>518.88</v>
       </c>
       <c r="N74" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="O74" t="s">
-        <v>147</v>
+        <v>71</v>
       </c>
       <c r="P74" t="s">
-        <v>153</v>
+        <v>72</v>
       </c>
       <c r="Q74" t="s">
-        <v>164</v>
+        <v>73</v>
       </c>
       <c r="R74">
         <v>221</v>
@@ -5486,5 +6129,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>